--- a/inst/extdata/NASA.xlsx
+++ b/inst/extdata/NASA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52f3bfca600065ab/Documents/Standard Files/University/Stage 2/EC581/Seminar 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\point\Documents\GitHub\Kenometrics\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA54CD5A-D8A4-4A24-A777-1CAE17B709EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D9BA4A8-905E-4185-8244-C36196307B1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="612" windowWidth="23040" windowHeight="12348"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="23040" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NASA1" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,13 @@
     <t>No_Smoothing</t>
   </si>
   <si>
-    <t>Lowess(5)</t>
+    <t>Lowess</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -868,10 +868,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
